--- a/data/trans_dic/P1432-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1432-Clase-trans_dic.xlsx
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002119327701691749</v>
+        <v>0.003467855223621277</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003115363151789501</v>
+        <v>0.003108077470999376</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002131242583031421</v>
+        <v>0.002360009155511978</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001405602936805394</v>
+        <v>0.001453725684237112</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00155710375626087</v>
+        <v>0.001548258662273275</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.024197168190893</v>
+        <v>0.02453614421584135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01166360068594743</v>
+        <v>0.01086258313748651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01503256291302217</v>
+        <v>0.01500365105483076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01591274101600389</v>
+        <v>0.01553752137670043</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02915290560649</v>
+        <v>0.026388586524801</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0252047708862974</v>
+        <v>0.02142950417482207</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01455957343144103</v>
+        <v>0.01678902451719648</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01260502308828475</v>
+        <v>0.01278145728185657</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01389976022311898</v>
+        <v>0.01300776775973312</v>
       </c>
     </row>
     <row r="7">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004783625835734192</v>
+        <v>0.004802477226999325</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -793,20 +793,20 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002781783554492467</v>
+        <v>0.002784112949186134</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.002801713104262912</v>
+        <v>0.002813751271538414</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005508272176844027</v>
+        <v>0.00563400121794514</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003219656717629831</v>
+        <v>0.002948228243291991</v>
       </c>
     </row>
     <row r="9">
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02710959218457934</v>
+        <v>0.02948276516657905</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01234488927190293</v>
+        <v>0.01379584812464839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01705428329215011</v>
+        <v>0.01452511595352921</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02701971036525364</v>
+        <v>0.02765058648229042</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.03267491553265313</v>
+        <v>0.03448647347431171</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02239781650098914</v>
+        <v>0.02171711228695916</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.007945762233439518</v>
+        <v>0.006458339044818611</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02059094663289066</v>
+        <v>0.0213019735490769</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004449456000783872</v>
+        <v>0.004684451286683893</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004850786892746264</v>
+        <v>0.004795382428482888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001509520260099877</v>
+        <v>0.001489954242991415</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003601116314984433</v>
+        <v>0.003626928869347325</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005106872378066623</v>
+        <v>0.00520907791331951</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005541624017028876</v>
+        <v>0.005765870021542379</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002790018468637464</v>
+        <v>0.002657045127076802</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.024559385352975</v>
+        <v>0.02500453175885318</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02941160468174524</v>
+        <v>0.02568359717575341</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.020698934824073</v>
+        <v>0.01756224604689282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04755987496560594</v>
+        <v>0.0544794181234991</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03071908143564097</v>
+        <v>0.03433534816768506</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04703791633284955</v>
+        <v>0.04230033738260345</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02245227021453649</v>
+        <v>0.02288513070119292</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02151199463117761</v>
+        <v>0.02417500570121675</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01843888774673447</v>
+        <v>0.01769101846451479</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008098397444110565</v>
+        <v>0.007610008069325298</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00420083011169167</v>
+        <v>0.004449038512718272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001479652555832928</v>
+        <v>0.001481444498148156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00328651093261013</v>
+        <v>0.002531859816771193</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002641064794109164</v>
+        <v>0.002578087735857357</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004643264632701799</v>
+        <v>0.004864877162162832</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00718771011220394</v>
+        <v>0.007169370991897028</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004252154851468933</v>
+        <v>0.004230795768844119</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003679796622498882</v>
+        <v>0.003725270565467773</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02057819419780807</v>
+        <v>0.02008255273612788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0158736278501594</v>
+        <v>0.01755896842180567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008761729774783795</v>
+        <v>0.008460989397885321</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.017044562603872</v>
+        <v>0.01671665606230689</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0165735932584433</v>
+        <v>0.01474127910247654</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02084645713630599</v>
+        <v>0.02127770910403889</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01645778797089894</v>
+        <v>0.01614432229706091</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01355755732146587</v>
+        <v>0.01264684825873928</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01146233663723128</v>
+        <v>0.01126966228365416</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004655635547988759</v>
+        <v>0.005262167299797628</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001996872351978625</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004242308040280729</v>
+        <v>0.004144721203601217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009793641934800881</v>
+        <v>0.00968453581555259</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01752599076678252</v>
+        <v>0.01797632484120203</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004220527532784575</v>
+        <v>0.004533497555818864</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008909335642056411</v>
+        <v>0.009909493112404067</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01245255561164856</v>
+        <v>0.01264306456184034</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006049166729000985</v>
+        <v>0.005897655673603934</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03018056444567343</v>
+        <v>0.03052022319920247</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01832212494316224</v>
+        <v>0.01634354324727694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01965209996425538</v>
+        <v>0.02052355151305329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03478513112083184</v>
+        <v>0.03428507531919167</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04221249564867816</v>
+        <v>0.04283579021442459</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02011210494629387</v>
+        <v>0.02022046951084232</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02711198835233765</v>
+        <v>0.02809621787096944</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02860531568965639</v>
+        <v>0.02806194812398694</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01713613013273757</v>
+        <v>0.01619679744533842</v>
       </c>
     </row>
     <row r="19">
@@ -1219,22 +1219,22 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.01344180953102742</v>
+        <v>0.01338284807082904</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0147822735063838</v>
+        <v>0.01527786850352282</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01495756354213776</v>
+        <v>0.0153951412064487</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.011494218327852</v>
+        <v>0.01124356704000548</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01199929100305292</v>
+        <v>0.01175884097720511</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01152869801983553</v>
+        <v>0.01109487730835247</v>
       </c>
     </row>
     <row r="21">
@@ -1248,22 +1248,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.03095038903368729</v>
+        <v>0.03161322016577454</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03414384570198133</v>
+        <v>0.03382953149118218</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03479498389853905</v>
+        <v>0.03478136953313673</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02519725624856872</v>
+        <v>0.02502384579566751</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02749747386731527</v>
+        <v>0.0270238336751457</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02708614825015544</v>
+        <v>0.0267791968221184</v>
       </c>
     </row>
     <row r="22">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007845003567196453</v>
+        <v>0.007920291971873073</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004055395796061258</v>
+        <v>0.00397507721054844</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003271320058618783</v>
+        <v>0.00304839690529621</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01137608293095898</v>
+        <v>0.01095338255702497</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01244639524275586</v>
+        <v>0.01239897125666285</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01060513735205257</v>
+        <v>0.0107222154082601</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01032295847167267</v>
+        <v>0.01045999426821809</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008839366329357258</v>
+        <v>0.009133292912363663</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.007799702517666282</v>
+        <v>0.00771237812118052</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01480791017620809</v>
+        <v>0.01546896435078529</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01019206395635549</v>
+        <v>0.01022139437373704</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.008167459298510867</v>
+        <v>0.007861208074383686</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01979649298302798</v>
+        <v>0.01947686388789694</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02155154764226836</v>
+        <v>0.02122731003589259</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0191891287498311</v>
+        <v>0.01948098878039701</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01592945434843706</v>
+        <v>0.01590399376361893</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01440556602540874</v>
+        <v>0.01466108267808607</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01274907291860675</v>
+        <v>0.01259238550667149</v>
       </c>
     </row>
     <row r="25">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1004</v>
+        <v>1643</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1663</v>
+        <v>1842</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1057</v>
+        <v>1093</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7">
@@ -1638,31 +1638,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11464</v>
+        <v>11625</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5099</v>
+        <v>4749</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6450</v>
+        <v>6438</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4880</v>
+        <v>4765</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9167</v>
+        <v>8298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8747</v>
+        <v>7437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11363</v>
+        <v>13103</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9475</v>
+        <v>9607</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10788</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="8">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -1756,20 +1756,20 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4070</v>
+        <v>4162</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2413</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="11">
@@ -1780,29 +1780,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9947</v>
+        <v>10818</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5170</v>
+        <v>5778</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6433</v>
+        <v>5479</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10048</v>
+        <v>10282</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>12164</v>
+        <v>12838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16547</v>
+        <v>16045</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6013</v>
+        <v>4888</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15433</v>
+        <v>15966</v>
       </c>
     </row>
     <row r="12">
@@ -1887,31 +1887,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2413</v>
+        <v>2541</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3053</v>
+        <v>3018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3627</v>
+        <v>3699</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4930</v>
+        <v>5129</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1920</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="15">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13321</v>
+        <v>13562</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18512</v>
+        <v>16166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10803</v>
+        <v>9166</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7980</v>
+        <v>9141</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7991</v>
+        <v>8932</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7814</v>
+        <v>7027</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15945</v>
+        <v>16252</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19136</v>
+        <v>21505</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12687</v>
+        <v>12172</v>
       </c>
     </row>
     <row r="16">
@@ -2031,31 +2031,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10029</v>
+        <v>9424</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4869</v>
+        <v>5156</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2348</v>
+        <v>1808</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2020</v>
+        <v>1972</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3835</v>
+        <v>4018</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14035</v>
+        <v>13999</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8180</v>
+        <v>8139</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7269</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="19">
@@ -2066,31 +2066,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25483</v>
+        <v>24869</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18398</v>
+        <v>20351</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10073</v>
+        <v>9727</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12175</v>
+        <v>11940</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12674</v>
+        <v>11273</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17217</v>
+        <v>17573</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32136</v>
+        <v>31524</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26081</v>
+        <v>24329</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22644</v>
+        <v>22263</v>
       </c>
     </row>
     <row r="20">
@@ -2175,31 +2175,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1632</v>
+        <v>1845</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2633</v>
+        <v>2573</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5570</v>
+        <v>5508</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13324</v>
+        <v>13666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3116</v>
+        <v>3347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8190</v>
+        <v>9110</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>15825</v>
+        <v>16067</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8221</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="23">
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10580</v>
+        <v>10699</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9355</v>
+        <v>8345</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12198</v>
+        <v>12739</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19784</v>
+        <v>19500</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32092</v>
+        <v>32566</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14848</v>
+        <v>14928</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>24924</v>
+        <v>25829</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>36353</v>
+        <v>35662</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>23287</v>
+        <v>22011</v>
       </c>
     </row>
     <row r="24">
@@ -2322,22 +2322,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>16786</v>
+        <v>16712</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16382</v>
+        <v>16932</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>16184</v>
+        <v>16658</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17781</v>
+        <v>17393</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>16501</v>
+        <v>16170</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>15785</v>
+        <v>15191</v>
       </c>
     </row>
     <row r="27">
@@ -2351,22 +2351,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>38650</v>
+        <v>39477</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>37840</v>
+        <v>37491</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>37649</v>
+        <v>37634</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>38979</v>
+        <v>38711</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>37812</v>
+        <v>37161</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>37086</v>
+        <v>36665</v>
       </c>
     </row>
     <row r="28">
@@ -2451,31 +2451,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25655</v>
+        <v>25901</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13877</v>
+        <v>13602</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11076</v>
+        <v>10321</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>38430</v>
+        <v>37002</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>44133</v>
+        <v>43964</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>37453</v>
+        <v>37867</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>68630</v>
+        <v>69541</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>61590</v>
+        <v>63638</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>53953</v>
+        <v>53349</v>
       </c>
     </row>
     <row r="31">
@@ -2486,31 +2486,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>48425</v>
+        <v>50586</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34876</v>
+        <v>34977</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27653</v>
+        <v>26616</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>66875</v>
+        <v>65795</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>76418</v>
+        <v>75268</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>67768</v>
+        <v>68799</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>105904</v>
+        <v>105735</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>100374</v>
+        <v>102154</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>88189</v>
+        <v>87106</v>
       </c>
     </row>
     <row r="32">
